--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 61763-2025</t>
+          <t>A 8500-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46002.62600694445</v>
+        <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1788,6 +1788,102 @@
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8500-2022 artfynd.xlsx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8500-2022 karta.png", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/knärot/A 8500-2022 karta knärot.png", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8500-2022 FSC-klagomål.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8500-2022 FSC-klagomål mail.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8500-2022 tillsynsbegäran.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8500-2022 tillsynsbegäran mail.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 8500-2022 prioriterade fågelarter.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61763-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46002.62600694445</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Björksplintborre
@@ -1795,128 +1891,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 61763-2025 artfynd.xlsx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 61763-2025 karta.png", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 61763-2025 FSC-klagomål.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 61763-2025 FSC-klagomål mail.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 61763-2025 tillsynsbegäran.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 61763-2025 tillsynsbegäran mail.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 61763-2025 prioriterade fågelarter.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 8500-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44613</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8500-2022 artfynd.xlsx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8500-2022 karta.png", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/knärot/A 8500-2022 karta knärot.png", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8500-2022 FSC-klagomål.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8500-2022 FSC-klagomål mail.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8500-2022 tillsynsbegäran.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8500-2022 tillsynsbegäran mail.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 8500-2022 prioriterade fågelarter.docx", "A 8500-2022")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37456-2023</t>
+          <t>A 48717-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45156</v>
+        <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2038,23 +2038,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2077,125 +2072,130 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 37456-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Tjockfotad fingersvamp
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 48717-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2469,14 +2469,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 46-2022</t>
+          <t>A 754-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44560</v>
+        <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,13 +2488,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2528,474 +2523,479 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 9745-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 62402-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Brandticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 46-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44560</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 9745-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 62402-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44923</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Brandticka</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 754-2024</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
         <v/>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3141,49 +3141,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45756</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,23 +3191,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3235,45 +3226,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3277,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3320,45 +3311,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3362,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3405,45 +3396,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45756</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,8 +3446,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3490,45 +3486,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3541,16 +3537,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3565,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3575,45 +3571,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3622,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3660,45 +3656,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44560</v>
+        <v>45139</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3710,23 +3706,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3740,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3750,45 +3741,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45756</v>
+        <v>44560</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,13 +3797,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3840,45 +3831,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45139</v>
+        <v>45756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,17 +3881,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3915,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3925,45 +3921,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45139</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3979,7 +3975,7 @@
         <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4010,31 +4006,35 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
         <v>45782.52939814814</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45790.45738425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45063</v>
+        <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45071</v>
+        <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44597</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44434</v>
+        <v>44917</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45205</v>
+        <v>45898</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45086</v>
+        <v>45000</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44341</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45898</v>
+        <v>45756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,8 +5841,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45226</v>
+        <v>44365</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5898,8 +5903,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5946,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45194</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5956,7 +5966,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5993,14 +6003,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45107</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6013,7 +6023,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6050,14 +6060,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45260</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6070,7 +6080,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6107,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6127,7 +6137,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6164,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45817</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6184,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6221,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>44649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6241,7 +6251,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6278,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44365</v>
+        <v>45328</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6297,13 +6307,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6347,7 +6352,7 @@
         <v>45932.64520833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6404,7 +6409,7 @@
         <v>45932.66008101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6454,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45084</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6479,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46002</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44587</v>
+        <v>45946</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6588,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6625,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45259</v>
+        <v>44597</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6645,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6682,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45946</v>
+        <v>44341</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6702,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6739,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44606</v>
+        <v>45260</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6759,7 +6764,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6796,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6815,13 +6820,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6858,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45000</v>
+        <v>45817</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6915,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>22.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6593-2021</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44236</v>
+        <v>44434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7143,14 +7143,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>45709</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7162,8 +7162,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>22.9</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7200,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45456</v>
+        <v>45356</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7220,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7257,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45084</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7277,7 +7282,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7314,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45225</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7334,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7371,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45205</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7391,7 +7396,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7428,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45225</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7448,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7485,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45709</v>
+        <v>45310</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7504,13 +7509,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>45357.72652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45328</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45063</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45225</v>
+        <v>45139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45817</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45225</v>
+        <v>45300</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45328</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>44609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45310</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44917</v>
+        <v>46002</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44586</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44637</v>
+        <v>44706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44706</v>
+        <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8364,8 +8364,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8402,14 +8407,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8427,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8459,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45356</v>
+        <v>44587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8516,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45139</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8536,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8573,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45139</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8593,7 +8598,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8630,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 6593-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45078</v>
+        <v>44236</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8649,13 +8654,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45019</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44609</v>
+        <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44649</v>
+        <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45107</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45064</v>
+        <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45194</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45194</v>
+        <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>45303</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9205,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>45259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45300</v>
+        <v>44606</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9319,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9338,8 +9338,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9376,14 +9381,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9396,7 +9401,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9433,14 +9438,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9453,7 +9458,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9490,14 +9495,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45756</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9509,13 +9514,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44381</v>
+        <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>14.7</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45383.6325</v>
+        <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>14.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45193</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45261</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45383.6325</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>45193</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10065,14 +10065,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45261</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10122,14 +10122,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45156</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44618</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44560</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45448.56583333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45965.58837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>45139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45756</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>46013.58824074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>46013.59207175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>45139</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44560</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45394.61583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>45782.52939814814</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45790.45738425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45804.64016203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44917</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45898</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45000</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45394.56777777777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44365</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>45194</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45107</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45918.65505787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45832.36104166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45382.8109375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45328</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>45932.64520833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45932.66008101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>45084</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45819.38072916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45946</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44597</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44341</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>45260</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44914.70746527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45817</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45965.56219907408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45965.56984953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45397.73675925926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45709</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45356</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45397.74266203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>45225</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45205</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45225</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45310</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45357.72652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>46028.76050925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45063</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45817</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45300</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45000.41373842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45586.58753472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>46002</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>46055.5656712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45450.35116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44946.41527777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44236</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45050.47333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45461.62585648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45035.82512731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45303</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44606</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45769.62061342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>45728.55622685186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45394.58053240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45019.41045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45646.47003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44449.42270833333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45776.62738425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45364.40821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45383.6325</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45193</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45450.34506944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45261</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>45795.39648148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45156</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44618</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44560</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45448.56583333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45965.58837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>45139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45756</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>46013.58824074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>46013.59207175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>45139</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44560</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45394.61583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>45782.52939814814</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45790.45738425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45804.64016203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44917</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45898</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45000</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45394.56777777777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44365</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>45194</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45107</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45918.65505787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45832.36104166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45382.8109375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45328</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>45932.64520833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45932.66008101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>45084</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45819.38072916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45946</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44597</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44341</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>45260</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44914.70746527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45817</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45965.56219907408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45965.56984953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45397.73675925926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45709</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45356</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45397.74266203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>45225</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45205</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45225</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45310</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45357.72652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>46028.76050925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45063</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45817</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45300</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45000.41373842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45586.58753472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>46002</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>46055.5656712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45450.35116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44946.41527777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44236</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45050.47333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45461.62585648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45035.82512731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45303</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44606</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45769.62061342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>45728.55622685186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45394.58053240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45019.41045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45646.47003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44449.42270833333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45776.62738425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45364.40821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45383.6325</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45193</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45450.34506944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45261</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>45795.39648148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 48717-2024</t>
+          <t>A 37456-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45593</v>
+        <v>45156</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2038,17 +2038,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2063,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2072,130 +2077,125 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Tjockfotad fingersvamp
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 48717-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 37456-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45156</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Tjockfotad fingersvamp
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2469,14 +2469,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 754-2024</t>
+          <t>A 46-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45300</v>
+        <v>44560</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,8 +2488,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2523,479 +2528,474 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 754-2024</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönsiska</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 9745-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44618</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C25" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>5.9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 62402-2022</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44923</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C26" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>3.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Brandticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 46-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44560</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
         <v/>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44973</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3141,45 +3141,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45756</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,17 +3195,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3216,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3226,45 +3235,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,7 +3286,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3311,45 +3320,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45139</v>
+        <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3371,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3396,45 +3405,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45756</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,23 +3455,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3486,45 +3490,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,14 +3540,19 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3571,45 +3580,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45756</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,17 +3630,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3646,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3656,45 +3670,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45139</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3707,7 +3721,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3741,45 +3755,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44560</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,19 +3805,14 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3831,45 +3840,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45756</v>
+        <v>45139</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,23 +3890,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3921,45 +3925,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45139</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3975,7 +3979,7 @@
         <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4006,35 +4010,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
         <v>45782.52939814814</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45790.45738425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45086</v>
+        <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45019</v>
+        <v>45226</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44917</v>
+        <v>45260</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45898</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45000</v>
+        <v>44365</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5727,8 +5727,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5765,14 +5770,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5790,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5827,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45756</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,13 +5846,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44365</v>
+        <v>45259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5903,13 +5903,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5946,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45194</v>
+        <v>44606</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5966,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6003,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45107</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6023,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6060,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6079,8 +6074,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45000</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44649</v>
+        <v>45898</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45328</v>
+        <v>45456</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45084</v>
+        <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45946</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44597</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44341</v>
+        <v>45063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45260</v>
+        <v>45071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6858,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45817</v>
+        <v>44597</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>45946</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>22.9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45086</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44434</v>
+        <v>45817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7143,14 +7143,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45709</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7162,13 +7162,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>22.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7200,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45356</v>
+        <v>45084</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7220,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7262,14 +7257,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7282,7 +7277,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7319,14 +7314,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45225</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7334,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7376,14 +7371,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45205</v>
+        <v>45709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7395,8 +7390,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45225</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45310</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45328</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45817</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45063</v>
+        <v>45225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45139</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45139</v>
+        <v>46002</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45817</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45300</v>
+        <v>45225</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45328</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44609</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45310</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>44917</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45064</v>
+        <v>44586</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44706</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45078</v>
+        <v>44637</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8364,13 +8364,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8407,14 +8402,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45456</v>
+        <v>44706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8422,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8459,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44587</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8479,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8516,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45356</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8536,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8573,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45139</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8593,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8630,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6593-2021</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44236</v>
+        <v>45139</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8650,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8687,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8711,8 +8706,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45328</v>
+        <v>45019</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44586</v>
+        <v>44609</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>44649</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44637</v>
+        <v>45107</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45064</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45071</v>
+        <v>45194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9091,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45194</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45303</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45259</v>
+        <v>45303</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44606</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9319,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>45300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9338,13 +9338,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9515,7 +9510,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9547,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45756</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9571,8 +9566,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45194</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45383.6325</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45193</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45383.6325</v>
+        <v>45261</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45193</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10062,17 +10062,17 @@
       </c>
       <c r="R142" s="2" t="inlineStr"/>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45261</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10118,63 +10118,6 @@
         <v>0</v>
       </c>
       <c r="R143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A 23923-2025</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>45795.39648148148</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37456-2023</t>
+          <t>A 48717-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45156</v>
+        <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2038,23 +2038,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2077,125 +2072,130 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 37456-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Tjockfotad fingersvamp
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 48717-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44560</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2560,14 +2560,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21612-2021</t>
+          <t>A 754-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44321</v>
+        <v>45300</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,16 +2580,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2614,388 +2614,388 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 9745-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 62402-2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Brandticka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv
 Grönsiska</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 754-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 9745-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 62402-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44923</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
         <v/>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45394.61583333334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3176,14 +3176,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45756</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,13 +3195,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3235,45 +3230,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,16 +3281,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3310,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3320,31 +3315,31 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
     </row>
@@ -3358,7 +3353,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3436,14 +3431,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3456,7 +3451,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3490,45 +3485,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44560</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,23 +3535,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3570,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3580,45 +3570,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45756</v>
+        <v>45139</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3630,23 +3620,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3660,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3670,45 +3655,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3720,17 +3705,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3745,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3755,31 +3745,31 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
@@ -3793,7 +3783,7 @@
         <v>46013.58824074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3871,14 +3861,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45139</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3881,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3925,45 +3915,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3976,7 +3966,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4010,45 +4000,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>44560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,14 +4050,19 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4095,45 +4090,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45756</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4145,8 +4140,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4184,27 +4184,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45205</v>
+        <v>45303</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44341</v>
+        <v>45259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>9.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45226</v>
+        <v>45898</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45260</v>
+        <v>45226</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45086</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44365</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5770,14 +5770,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44587</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5827,14 +5827,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45259</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44606</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>45194</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6074,13 +6074,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45000</v>
+        <v>44381</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6137,7 +6132,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>14.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6231,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45898</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6251,7 +6246,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6283,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45456</v>
+        <v>45383.6325</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6303,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6340,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45193</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6360,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6397,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6417,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6454,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44434</v>
+        <v>45261</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6479,7 +6474,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6511,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45019</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6531,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6568,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6588,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6625,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>44917</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6687,14 +6682,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45063</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6702,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6739,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45071</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6764,7 +6759,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6796,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6821,7 +6816,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6853,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44597</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6878,7 +6873,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6910,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45946</v>
+        <v>45756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6934,8 +6929,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45086</v>
+        <v>44365</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6991,8 +6991,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7034,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45817</v>
+        <v>45194</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7054,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7106,7 +7111,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7143,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7163,7 +7168,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>22.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7200,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45084</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7220,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7257,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>44649</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7277,7 +7282,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7314,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7334,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7371,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45709</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7390,13 +7395,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45328</v>
+        <v>45084</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45817</v>
+        <v>45946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45225</v>
+        <v>44597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>44341</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46002</v>
+        <v>44434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45260</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45225</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45328</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45709</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8022,8 +8022,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8065,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45310</v>
+        <v>45817</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8085,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8122,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45356</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8142,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8179,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44917</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8199,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>22.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8236,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44586</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8256,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8293,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8313,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8345,14 +8350,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44637</v>
+        <v>45225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8370,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8402,14 +8407,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44706</v>
+        <v>45205</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8427,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8459,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8516,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45356</v>
+        <v>45310</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8536,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8573,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45139</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8593,7 +8598,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8630,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45139</v>
+        <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8650,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8687,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45078</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8706,13 +8711,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44609</v>
+        <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44649</v>
+        <v>45817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45107</v>
+        <v>45300</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45064</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45194</v>
+        <v>44609</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45194</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>46002</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45303</v>
+        <v>45064</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>44706</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9319,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45300</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9376,14 +9376,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45078</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9395,8 +9395,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9433,14 +9438,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45456</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9453,7 +9458,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9490,14 +9495,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>44587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9510,7 +9515,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9547,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45756</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9566,13 +9571,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44381</v>
+        <v>45328</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>14.7</v>
+        <v>4.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45383.6325</v>
+        <v>44586</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45193</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45261</v>
+        <v>44637</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>45071</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10065,14 +10065,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 48717-2024</t>
+          <t>A 37456-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45593</v>
+        <v>45156</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2038,17 +2038,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2063,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2072,144 +2077,139 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Tjockfotad fingersvamp
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 48717-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 37456-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45156</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Tjockfotad fingersvamp
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60-2022</t>
+          <t>A 9445-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44560</v>
+        <v>44616</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,19 +2221,14 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>14.3</v>
+        <v>10.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2261,208 +2256,213 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Grönpyrola
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9445-2022 artfynd.xlsx", "A 9445-2022")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9445-2022 karta.png", "A 9445-2022")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9445-2022 FSC-klagomål.docx", "A 9445-2022")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9445-2022 FSC-klagomål mail.docx", "A 9445-2022")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9445-2022 tillsynsbegäran.docx", "A 9445-2022")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9445-2022 tillsynsbegäran mail.docx", "A 9445-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 70608-2021</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44536</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Tibast</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 70608-2021 artfynd.xlsx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 70608-2021 karta.png", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 70608-2021 FSC-klagomål.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 70608-2021 FSC-klagomål mail.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 70608-2021 tillsynsbegäran.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 70608-2021 tillsynsbegäran mail.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 70608-2021 prioriterade fågelarter.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 60-2022</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44560</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Vätteros
 Vårärt</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 60-2022 artfynd.xlsx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 60-2022 karta.png", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 60-2022 FSC-klagomål.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 60-2022 FSC-klagomål mail.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 60-2022 tillsynsbegäran.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 60-2022 tillsynsbegäran mail.docx", "A 60-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 70608-2021</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44536</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Tibast</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 70608-2021 artfynd.xlsx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 70608-2021 karta.png", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 70608-2021 FSC-klagomål.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 70608-2021 FSC-klagomål mail.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 70608-2021 tillsynsbegäran.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 70608-2021 tillsynsbegäran mail.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 70608-2021 prioriterade fågelarter.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 9445-2022</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44616</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9445-2022 artfynd.xlsx", "A 9445-2022")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9445-2022 karta.png", "A 9445-2022")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9445-2022 FSC-klagomål.docx", "A 9445-2022")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9445-2022 FSC-klagomål mail.docx", "A 9445-2022")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9445-2022 tillsynsbegäran.docx", "A 9445-2022")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9445-2022 tillsynsbegäran mail.docx", "A 9445-2022")</f>
         <v/>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>44560</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2560,14 +2560,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 754-2024</t>
+          <t>A 21612-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45300</v>
+        <v>44321</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2614,402 +2614,402 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 754-2024</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönsiska</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 9745-2022</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44618</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C25" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>5.9</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 62402-2022</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44923</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C26" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>3.8</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Brandticka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8817-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45712.70987268518</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3022,17 +3022,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3056,45 +3056,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 8817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45712.70987268518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3141,49 +3141,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,17 +3192,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3230,45 +3226,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3280,8 +3280,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3319,41 +3324,41 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44973</v>
+        <v>45139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3366,7 +3371,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3400,45 +3405,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>44560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,17 +3455,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3475,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3485,45 +3495,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3546,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3570,45 +3580,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45139</v>
+        <v>45756</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3620,17 +3630,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3645,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3655,45 +3670,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45756</v>
+        <v>45139</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3705,23 +3720,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3735,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3745,45 +3755,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3796,7 +3806,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3830,45 +3840,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,16 +3891,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3905,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3915,45 +3925,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45139</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3966,7 +3976,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4000,45 +4010,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44560</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4050,23 +4060,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4090,45 +4095,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45756</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4140,13 +4145,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4180,31 +4180,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,14 +4620,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 242-2022</t>
+          <t>A 14430-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44560</v>
+        <v>44279.4665625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4639,13 +4639,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4682,14 +4677,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2867-2022</t>
+          <t>A 14443-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44581</v>
+        <v>44279</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4702,7 +4697,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4739,14 +4734,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7276-2022</t>
+          <t>A 14447-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44606</v>
+        <v>44279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4759,7 +4754,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4796,14 +4791,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46924-2021</t>
+          <t>A 52377-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44446</v>
+        <v>44465</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4816,7 +4811,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4853,14 +4848,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52377-2021</t>
+          <t>A 48078-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44465</v>
+        <v>44449.42578703703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4873,7 +4868,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4910,14 +4905,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14430-2021</t>
+          <t>A 37657-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44279.4665625</v>
+        <v>44400</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4930,7 +4925,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4967,14 +4962,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14443-2021</t>
+          <t>A 242-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44279</v>
+        <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4986,8 +4981,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14447-2021</t>
+          <t>A 2867-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44279</v>
+        <v>44581</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37657-2021</t>
+          <t>A 14725-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44400</v>
+        <v>44655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48078-2021</t>
+          <t>A 7276-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44449.42578703703</v>
+        <v>44606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,14 +5252,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14725-2022</t>
+          <t>A 7085-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44655</v>
+        <v>44603</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7085-2022</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44603</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45303</v>
+        <v>44365</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5385,8 +5385,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5428,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 46924-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45259</v>
+        <v>44446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5448,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5485,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45898</v>
+        <v>45086</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5505,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5542,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44606</v>
+        <v>45205</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5562,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5599,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45226</v>
+        <v>44341</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5619,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5656,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45086</v>
+        <v>45226</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5676,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5713,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5727,13 +5732,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5770,14 +5770,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5827,14 +5827,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>9.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45194</v>
+        <v>45084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44381</v>
+        <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>14.7</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6283,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45383.6325</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6302,8 +6302,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45193</v>
+        <v>45000</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6360,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6397,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45709</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6416,8 +6421,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6464,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45261</v>
+        <v>44637</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6484,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6521,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45019</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6541,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6578,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>44706</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6588,7 +6598,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6625,14 +6635,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44917</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6645,7 +6655,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6682,14 +6692,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6702,7 +6712,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6739,14 +6749,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45328</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6759,7 +6769,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6796,14 +6806,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45000</v>
+        <v>45225</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6816,7 +6826,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6853,14 +6863,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6873,7 +6883,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6910,14 +6920,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45756</v>
+        <v>45356</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6929,13 +6939,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6977,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44365</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6991,13 +6996,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7034,14 +7034,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45194</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7091,14 +7091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45107</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45225</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7262,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44649</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7319,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45328</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7376,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>44434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45328</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45310</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45084</v>
+        <v>45139</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45946</v>
+        <v>45139</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44597</v>
+        <v>45078</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7680,8 +7680,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7723,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44341</v>
+        <v>45019</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7743,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7780,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44434</v>
+        <v>45063</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7800,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7837,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45260</v>
+        <v>45071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7857,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7894,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7914,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7951,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>44597</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7971,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8008,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45709</v>
+        <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8022,13 +8027,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8065,14 +8065,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45817</v>
+        <v>44609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8122,14 +8122,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45356</v>
+        <v>44649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8179,14 +8179,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>44586</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>22.9</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8236,14 +8236,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8293,14 +8293,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8350,14 +8350,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45225</v>
+        <v>45194</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8407,14 +8407,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45205</v>
+        <v>45194</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45225</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45310</v>
+        <v>45303</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45063</v>
+        <v>45898</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45300</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45139</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45139</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45817</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45300</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45756</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8996,8 +8996,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9039,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44609</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9059,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9096,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9116,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9153,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46002</v>
+        <v>44381</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9173,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.7</v>
+        <v>14.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9210,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45064</v>
+        <v>45383.6325</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9230,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9267,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44706</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9287,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9324,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9339,7 +9344,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9376,14 +9381,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45078</v>
+        <v>45193</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9395,13 +9400,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9438,14 +9438,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45456</v>
+        <v>45261</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9495,14 +9495,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44587</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45946</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45817</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45328</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44586</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>22.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44637</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45817</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45071</v>
+        <v>46002</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10065,14 +10065,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37456-2023</t>
+          <t>A 48717-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45156</v>
+        <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2038,23 +2038,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2077,139 +2072,144 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 37456-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Tjockfotad fingersvamp
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 48717-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 9445-2022</t>
+          <t>A 60-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44616</v>
+        <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,14 +2221,19 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>10.8</v>
+        <v>14.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2256,227 +2261,222 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Vätteros
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 60-2022 artfynd.xlsx", "A 60-2022")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 60-2022 karta.png", "A 60-2022")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 60-2022 FSC-klagomål.docx", "A 60-2022")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 60-2022 FSC-klagomål mail.docx", "A 60-2022")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 60-2022 tillsynsbegäran.docx", "A 60-2022")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 60-2022 tillsynsbegäran mail.docx", "A 60-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 70608-2021</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44536</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Tibast</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 70608-2021 artfynd.xlsx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 70608-2021 karta.png", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 70608-2021 FSC-klagomål.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 70608-2021 FSC-klagomål mail.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 70608-2021 tillsynsbegäran.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 70608-2021 tillsynsbegäran mail.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 70608-2021 prioriterade fågelarter.docx", "A 70608-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 9445-2022</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Grönpyrola
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9445-2022 artfynd.xlsx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9445-2022 karta.png", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9445-2022 FSC-klagomål.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9445-2022 FSC-klagomål mail.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9445-2022 tillsynsbegäran.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9445-2022 tillsynsbegäran mail.docx", "A 9445-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 70608-2021</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44536</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Tibast</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 70608-2021 artfynd.xlsx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 70608-2021 karta.png", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 70608-2021 FSC-klagomål.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 70608-2021 FSC-klagomål mail.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 70608-2021 tillsynsbegäran.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 70608-2021 tillsynsbegäran mail.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 70608-2021 prioriterade fågelarter.docx", "A 70608-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 60-2022</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44560</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 60-2022 artfynd.xlsx", "A 60-2022")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 60-2022 karta.png", "A 60-2022")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 60-2022 FSC-klagomål.docx", "A 60-2022")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 60-2022 FSC-klagomål mail.docx", "A 60-2022")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 60-2022 tillsynsbegäran.docx", "A 60-2022")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 60-2022 tillsynsbegäran mail.docx", "A 60-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 46-2022</t>
+          <t>A 754-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44560</v>
+        <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,13 +2488,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2528,488 +2523,493 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 9745-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 62402-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Brandticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 46-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44560</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 754-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 9745-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 62402-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44923</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 8817-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3022,16 +3022,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3056,45 +3056,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 8817-2025</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45712.70987268518</v>
+        <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,17 +3107,17 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3141,45 +3141,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3226,49 +3226,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45756</v>
+        <v>45139</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3280,23 +3276,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3310,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3320,45 +3311,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45139</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3362,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3405,45 +3396,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44560</v>
+        <v>45756</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,13 +3452,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3495,45 +3486,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44973</v>
+        <v>45139</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3537,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3580,45 +3571,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45756</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3630,13 +3621,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3670,45 +3656,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45139</v>
+        <v>44560</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3720,17 +3706,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3745,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3755,45 +3746,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,17 +3797,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3830,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3840,45 +3831,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,8 +3881,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3929,41 +3925,41 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3976,10 +3972,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4010,45 +4006,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4061,16 +4061,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4095,45 +4095,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4180,31 +4180,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,14 +4620,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14430-2021</t>
+          <t>A 2867-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44279.4665625</v>
+        <v>44581</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4677,14 +4677,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14443-2021</t>
+          <t>A 242-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44279</v>
+        <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4696,8 +4696,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4734,14 +4739,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14447-2021</t>
+          <t>A 7276-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44279</v>
+        <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4754,7 +4759,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4791,14 +4796,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52377-2021</t>
+          <t>A 46924-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44465</v>
+        <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4811,7 +4816,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4848,14 +4853,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48078-2021</t>
+          <t>A 52377-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44449.42578703703</v>
+        <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4868,7 +4873,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4905,14 +4910,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37657-2021</t>
+          <t>A 14430-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44400</v>
+        <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4925,7 +4930,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4962,14 +4967,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 242-2022</t>
+          <t>A 14443-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44560</v>
+        <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4981,13 +4986,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2867-2022</t>
+          <t>A 14447-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44581</v>
+        <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14725-2022</t>
+          <t>A 37657-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44655</v>
+        <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7276-2022</t>
+          <t>A 48078-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44606</v>
+        <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,14 +5252,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7085-2022</t>
+          <t>A 14725-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44603</v>
+        <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 7085-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44365</v>
+        <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5385,13 +5385,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5428,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46924-2021</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44446</v>
+        <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5448,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5485,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45086</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5505,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5542,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45205</v>
+        <v>45019</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5562,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5599,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44341</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5619,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5656,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45226</v>
+        <v>44917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5676,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5713,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45000</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5733,7 +5728,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5770,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44587</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5790,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5827,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45259</v>
+        <v>45756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5846,8 +5841,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>44365</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5960,8 +5960,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +6003,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45260</v>
+        <v>45194</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6023,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6060,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45084</v>
+        <v>45107</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6075,7 +6080,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44606</v>
+        <v>45898</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6137,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6189,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6246,7 +6251,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>44649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6302,13 +6307,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45000</v>
+        <v>45328</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45709</v>
+        <v>45084</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6421,13 +6421,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6464,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44637</v>
+        <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6484,7 +6479,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6521,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6541,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6578,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44706</v>
+        <v>44597</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6598,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6635,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>44341</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6655,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6692,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45456</v>
+        <v>45260</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6712,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.4</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6749,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45328</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6769,7 +6764,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45225</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6826,7 +6821,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6863,14 +6858,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6883,7 +6878,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6920,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45356</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6940,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6977,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45709</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6996,8 +6991,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7034,14 +7034,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45356</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7091,14 +7091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45225</v>
+        <v>45205</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7262,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45946</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7319,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45328</v>
+        <v>45225</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7376,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44434</v>
+        <v>45310</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45310</v>
+        <v>45063</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>45139</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45139</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45078</v>
+        <v>45817</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7680,13 +7680,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7723,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45019</v>
+        <v>45300</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7780,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45063</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7800,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>22.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7837,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45071</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7857,7 +7852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7894,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7914,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7951,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44597</v>
+        <v>44609</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7971,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8008,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44917</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8028,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8065,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44609</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8085,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8122,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44649</v>
+        <v>45064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8142,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8179,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44586</v>
+        <v>44706</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8199,7 +8194,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8236,14 +8231,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45107</v>
+        <v>45817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8256,7 +8251,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8293,14 +8288,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45064</v>
+        <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8312,8 +8307,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8350,14 +8350,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45194</v>
+        <v>45456</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8407,14 +8407,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45194</v>
+        <v>44587</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45303</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>46002</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45898</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45300</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45756</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8996,13 +8996,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9039,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9059,7 +9054,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9096,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9116,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9153,14 +9148,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44381</v>
+        <v>45303</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9168,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>14.7</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9210,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45383.6325</v>
+        <v>45259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9230,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9267,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>44606</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9287,7 +9282,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9324,14 +9319,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9343,8 +9338,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9381,14 +9381,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45193</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9438,14 +9438,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45261</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9495,14 +9495,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45946</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45817</v>
+        <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>14.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>22.9</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45383.6325</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45817</v>
+        <v>45193</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46002</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10065,14 +10065,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45261</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8500-2022</t>
+          <t>A 61763-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44613</v>
+        <v>46002.62600694445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1788,6 +1788,98 @@
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Björksplintborre
+Blomkålssvamp
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 61763-2025 artfynd.xlsx", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 61763-2025 karta.png", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 61763-2025 FSC-klagomål.docx", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 61763-2025 FSC-klagomål mail.docx", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 61763-2025 tillsynsbegäran.docx", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 61763-2025 tillsynsbegäran mail.docx", "A 61763-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 61763-2025 prioriterade fågelarter.docx", "A 61763-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 8500-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -1795,128 +1887,36 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8500-2022 artfynd.xlsx", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8500-2022 karta.png", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/knärot/A 8500-2022 karta knärot.png", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8500-2022 FSC-klagomål.docx", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8500-2022 FSC-klagomål mail.docx", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8500-2022 tillsynsbegäran.docx", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8500-2022 tillsynsbegäran mail.docx", "A 8500-2022")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 8500-2022 prioriterade fågelarter.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61763-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>46002.62600694445</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Björksplintborre
-Blomkålssvamp
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 61763-2025 artfynd.xlsx", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 61763-2025 karta.png", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 61763-2025 FSC-klagomål.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 61763-2025 FSC-klagomål mail.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 61763-2025 tillsynsbegäran.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 61763-2025 tillsynsbegäran mail.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 61763-2025 prioriterade fågelarter.docx", "A 61763-2025")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45156</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44618</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44560</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44973</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3141,45 +3141,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,16 +3192,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3226,45 +3226,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45139</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3311,45 +3311,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3396,45 +3396,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45756</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,23 +3446,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3476,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3486,45 +3481,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45139</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3532,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3571,45 +3566,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45139</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3622,17 +3617,17 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3646,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3656,45 +3651,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21-2022</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44560</v>
+        <v>45756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,13 +3707,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3746,45 +3741,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45139</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3797,7 +3792,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3831,45 +3826,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17341-2025</t>
+          <t>A 21-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45756</v>
+        <v>44560</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3887,13 +3882,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3921,45 +3916,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21-2022 artfynd.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21-2022 karta.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21-2022 FSC-klagomål.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21-2022 FSC-klagomål mail.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21-2022 tillsynsbegäran.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21-2022 tillsynsbegäran mail.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 17341-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45756</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3971,17 +3966,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4006,49 +4006,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17341-2025 artfynd.xlsx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17341-2025 karta.png", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17341-2025 FSC-klagomål.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17341-2025 FSC-klagomål mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17341-2025 tillsynsbegäran.docx", "A 17341-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17341-2025 tillsynsbegäran mail.docx", "A 17341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4061,17 +4057,17 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4085,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4095,45 +4091,49 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4180,31 +4180,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,14 +4620,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2867-2022</t>
+          <t>A 242-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44581</v>
+        <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4639,8 +4639,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4677,14 +4682,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 242-2022</t>
+          <t>A 2867-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44560</v>
+        <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4696,13 +4701,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45795.39648148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5537,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45019</v>
+        <v>46002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45019</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44917</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45000</v>
+        <v>45898</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45756</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,13 +5841,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45000</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5899,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44365</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5960,13 +5955,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6003,14 +5993,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45194</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6023,7 +6013,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6060,14 +6050,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45107</v>
+        <v>45756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6079,8 +6069,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898</v>
+        <v>44365</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6136,8 +6131,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45194</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45107</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44649</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45328</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45084</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44434</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44597</v>
+        <v>44649</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44341</v>
+        <v>45946</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45260</v>
+        <v>45328</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>44434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45817</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6858,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>22.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>45084</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45709</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6991,13 +6991,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7034,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45356</v>
+        <v>44597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7054,7 +7049,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7091,14 +7086,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>44341</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7111,7 +7106,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7143,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45225</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7168,7 +7163,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7200,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45205</v>
+        <v>45260</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7220,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7262,14 +7257,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45946</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7282,7 +7277,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7319,14 +7314,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45225</v>
+        <v>45817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7334,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7376,14 +7371,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45310</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7396,7 +7391,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7428,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45709</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7452,8 +7447,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45063</v>
+        <v>45356</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45139</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45139</v>
+        <v>45225</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45817</v>
+        <v>45205</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45300</v>
+        <v>45225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>45310</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>22.9</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45063</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44609</v>
+        <v>45139</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45139</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45300</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45064</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44706</v>
+        <v>44609</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45817</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45078</v>
+        <v>45064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8307,13 +8307,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8350,14 +8345,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45456</v>
+        <v>44706</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8365,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8407,14 +8402,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44587</v>
+        <v>45078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8426,8 +8421,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>44587</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46002</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>45050.47333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45545.36349537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45461.62585648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45035.82512731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45303</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44606</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45769.62061342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>45728.55622685186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45394.58053240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45019.41045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45646.47003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44449.42270833333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44381</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45776.62738425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45364.40821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45383.6325</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45193</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45450.34506944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45261</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 61763-2025</t>
+          <t>A 8500-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46002.62600694445</v>
+        <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1788,6 +1788,102 @@
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8500-2022 artfynd.xlsx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8500-2022 karta.png", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/knärot/A 8500-2022 karta knärot.png", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8500-2022 FSC-klagomål.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8500-2022 FSC-klagomål mail.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8500-2022 tillsynsbegäran.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8500-2022 tillsynsbegäran mail.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 8500-2022 prioriterade fågelarter.docx", "A 8500-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61763-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46002.62600694445</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Björksplintborre
@@ -1795,128 +1891,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 61763-2025 artfynd.xlsx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 61763-2025 karta.png", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 61763-2025 FSC-klagomål.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 61763-2025 FSC-klagomål mail.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 61763-2025 tillsynsbegäran.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 61763-2025 tillsynsbegäran mail.docx", "A 61763-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 61763-2025 prioriterade fågelarter.docx", "A 61763-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 8500-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44613</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8500-2022 artfynd.xlsx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8500-2022 karta.png", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/knärot/A 8500-2022 karta knärot.png", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8500-2022 FSC-klagomål.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8500-2022 FSC-klagomål mail.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8500-2022 tillsynsbegäran.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8500-2022 tillsynsbegäran mail.docx", "A 8500-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 8500-2022 prioriterade fågelarter.docx", "A 8500-2022")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45156</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44618</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44560</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45790.45738425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3172,14 +3172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,17 +3192,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3226,45 +3226,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3311,45 +3311,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44973</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3396,45 +3396,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,16 +3447,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3481,45 +3481,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3570,27 +3570,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
         <v>45139</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45139</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44560</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45756</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45394.61583333334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45782.52939814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44465</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5423,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45086</v>
+        <v>45193</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46002</v>
+        <v>45261</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45019</v>
+        <v>45086</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>45898</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5765,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44917</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45019</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45000</v>
+        <v>44917</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45756</v>
+        <v>45000</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6069,13 +6069,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6107,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44365</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6131,13 +6126,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6164,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45194</v>
+        <v>45756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6193,8 +6183,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45107</v>
+        <v>44365</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6250,8 +6245,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45194</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45107</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44649</v>
+        <v>45946</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45946</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45328</v>
+        <v>44649</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44434</v>
+        <v>45328</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45817</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45965.56219907408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6915,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45084</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45084</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44597</v>
+        <v>44434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44341</v>
+        <v>45817</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7143,14 +7143,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>44597</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7200,14 +7200,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45260</v>
+        <v>44341</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7257,14 +7257,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45260</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7314,14 +7314,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45817</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7371,14 +7371,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>46002</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7428,14 +7428,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45709</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7447,13 +7447,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7485,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45356</v>
+        <v>45709</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7509,8 +7504,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45356</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45225</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45205</v>
+        <v>45225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45225</v>
+        <v>45205</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45310</v>
+        <v>45225</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45310</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45063</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45139</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45139</v>
+        <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45300</v>
+        <v>45139</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45139</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44609</v>
+        <v>45300</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45064</v>
+        <v>44609</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44706</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8402,14 +8402,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45078</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8421,13 +8421,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8459,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45456</v>
+        <v>45064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8479,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8516,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44587</v>
+        <v>44706</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8536,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8573,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8597,8 +8592,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>44587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45328</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44586</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44637</v>
+        <v>45328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>44586</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45071</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>44637</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45303</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45259</v>
+        <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44606</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9319,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>45303</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9338,13 +9338,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>9.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>44606</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9514,8 +9509,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45194</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44381</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>14.7</v>
+        <v>4.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45194</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45383.6325</v>
+        <v>44381</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.4</v>
+        <v>14.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45193</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10065,14 +10065,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45261</v>
+        <v>45383.6325</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z143"/>
+  <dimension ref="A1:Z142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,14 +1923,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17342-2025</t>
+          <t>A 48717-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45756</v>
+        <v>45593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,23 +1942,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1981,129 +1976,134 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 17342-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17342-2025 artfynd.xlsx", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17342-2025 karta.png", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17342-2025 FSC-klagomål.docx", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17342-2025 FSC-klagomål mail.docx", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17342-2025 tillsynsbegäran.docx", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17342-2025 tillsynsbegäran mail.docx", "A 17342-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 17342-2025 prioriterade fågelarter.docx", "A 17342-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 48717-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
         <v/>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>45156</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44560</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44536</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2469,14 +2469,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 754-2024</t>
+          <t>A 46-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45300</v>
+        <v>44560</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,8 +2488,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2523,479 +2528,474 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 754-2024</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönsiska</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 9745-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44618</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C25" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>5.9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 62402-2022</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44923</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C26" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>3.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Brandticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 46-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44560</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
         <v/>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>45712.70987268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,17 +3107,17 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3141,45 +3141,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44973</v>
+        <v>45756</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,17 +3195,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3216,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3226,45 +3235,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,16 +3286,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3301,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3311,45 +3320,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,16 +3371,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3386,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3396,45 +3405,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,17 +3456,17 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3481,45 +3490,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63543-2025</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46013.59207175926</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3541,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3566,45 +3575,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45139</v>
+        <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3617,7 +3626,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3651,45 +3660,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 63543-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45756</v>
+        <v>46013.59207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,23 +3710,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3741,45 +3745,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63543-2025 artfynd.xlsx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63543-2025 karta.png", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63543-2025 FSC-klagomål.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63543-2025 FSC-klagomål mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63543-2025 tillsynsbegäran.docx", "A 63543-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63543-2025 tillsynsbegäran mail.docx", "A 63543-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45139</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3792,16 +3796,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3816,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3826,31 +3830,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
@@ -3864,7 +3868,7 @@
         <v>44560</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3958,7 @@
         <v>45756</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,14 +4041,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45139</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4057,10 +4061,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4091,49 +4095,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>45139</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4146,17 +4146,17 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4180,31 +4180,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>44315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44609.53716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,14 +4330,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8791-2021</t>
+          <t>A 9442-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44246</v>
+        <v>44616</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9442-2022</t>
+          <t>A 14434-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44616</v>
+        <v>44279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14434-2021</t>
+          <t>A 178-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44279</v>
+        <v>44560</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,8 +4463,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 178-2022</t>
+          <t>A 22060-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44560</v>
+        <v>44323</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4520,13 +4525,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4563,14 +4563,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22060-2021</t>
+          <t>A 242-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44323</v>
+        <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4582,8 +4582,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4620,14 +4625,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 242-2022</t>
+          <t>A 2867-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44560</v>
+        <v>44581</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4639,13 +4644,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2867-2022</t>
+          <t>A 7276-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44581</v>
+        <v>44606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7276-2022</t>
+          <t>A 46924-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44606</v>
+        <v>44446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46924-2021</t>
+          <t>A 52377-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44446</v>
+        <v>44465</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52377-2021</t>
+          <t>A 14430-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44465</v>
+        <v>44279.4665625</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14430-2021</t>
+          <t>A 14443-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44279.4665625</v>
+        <v>44279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14443-2021</t>
+          <t>A 14447-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14447-2021</t>
+          <t>A 37657-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44279</v>
+        <v>44400</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,14 +5081,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37657-2021</t>
+          <t>A 48078-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44400</v>
+        <v>44449.42578703703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48078-2021</t>
+          <t>A 42624-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44449.42578703703</v>
+        <v>44428</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,14 +5195,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42624-2021</t>
+          <t>A 14725-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44428</v>
+        <v>44655</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14725-2022</t>
+          <t>A 7085-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44655</v>
+        <v>44603</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7085-2022</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44603</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45226</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45193</v>
+        <v>45756</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5442,8 +5442,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5485,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5500,7 +5505,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5542,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45261</v>
+        <v>45205</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5557,7 +5562,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5599,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45086</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5619,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5656,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5676,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5713,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45898</v>
+        <v>44381</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5728,7 +5733,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>14.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5765,14 +5770,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45383.6325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5790,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5827,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45019</v>
+        <v>44341</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5842,7 +5847,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44917</v>
+        <v>45226</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5899,7 +5904,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45193</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5956,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5993,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6013,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6050,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45000</v>
+        <v>45261</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6070,7 +6075,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6107,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6127,7 +6132,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6164,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45756</v>
+        <v>45260</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6183,13 +6188,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44365</v>
+        <v>45898</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6245,13 +6245,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6283,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45194</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6303,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6340,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6360,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6397,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45946</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6417,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6454,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45107</v>
+        <v>44365</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6478,8 +6473,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6516,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45817</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6573,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45946</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>22.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 25984-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44649</v>
+        <v>45804.64016203704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45328</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45817</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6858,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>44587</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>22.9</v>
+        <v>6.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>45259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45084</v>
+        <v>44606</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44434</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45817</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7105,8 +7105,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7143,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44597</v>
+        <v>45000</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7163,7 +7168,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7200,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44341</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7220,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7257,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45260</v>
+        <v>45817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7277,7 +7282,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7314,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45456</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7334,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7371,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46002</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7391,7 +7396,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7428,14 +7433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>44434</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7448,7 +7453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7485,14 +7490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45709</v>
+        <v>46002</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7504,13 +7509,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45356</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45063</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7661,14 +7661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45225</v>
+        <v>45071</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45205</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45225</v>
+        <v>44597</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45310</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45086</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45063</v>
+        <v>45084</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45139</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45139</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45300</v>
+        <v>45709</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8193,8 +8193,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8231,14 +8236,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8251,7 +8256,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8288,14 +8293,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44609</v>
+        <v>45328</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8313,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8345,14 +8350,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8370,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8402,14 +8407,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8427,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8459,14 +8464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45064</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8516,14 +8521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44706</v>
+        <v>45225</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8536,7 +8541,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8573,14 +8578,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45078</v>
+        <v>45328</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8592,13 +8597,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45456</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.4</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8692,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44587</v>
+        <v>45310</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>44917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>44586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45328</v>
+        <v>44637</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44586</v>
+        <v>44706</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44637</v>
+        <v>45356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45139</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45071</v>
+        <v>45139</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45078</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9281,8 +9281,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9319,14 +9324,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45303</v>
+        <v>45019</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9339,7 +9344,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9376,14 +9381,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45259</v>
+        <v>44609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9396,7 +9401,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>9.4</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9433,14 +9438,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44606</v>
+        <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9453,7 +9458,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9490,14 +9495,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>45107</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9509,13 +9514,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9552,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45064</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45194</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>45303</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45194</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44381</v>
+        <v>45300</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>14.7</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10005,17 +10005,17 @@
       </c>
       <c r="R141" s="2" t="inlineStr"/>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10061,63 +10061,6 @@
         <v>0</v>
       </c>
       <c r="R142" s="2" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>A 12621-2024</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>45383.6325</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z142"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45401</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45217.56732638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>45182</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45790.4418287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44732</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45905.70087962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45601.40943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45905.70616898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>46002.62600694445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,14 +1923,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 48717-2024</t>
+          <t>A 17342-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45593</v>
+        <v>45756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,17 +1942,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1967,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1976,148 +1981,143 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17342-2025 artfynd.xlsx", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17342-2025 karta.png", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17342-2025 FSC-klagomål.docx", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17342-2025 FSC-klagomål mail.docx", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17342-2025 tillsynsbegäran.docx", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17342-2025 tillsynsbegäran mail.docx", "A 17342-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 17342-2025 prioriterade fågelarter.docx", "A 17342-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 48717-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 48717-2024 artfynd.xlsx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 48717-2024 karta.png", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 48717-2024 FSC-klagomål.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 48717-2024 FSC-klagomål mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 48717-2024 tillsynsbegäran.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 48717-2024 tillsynsbegäran mail.docx", "A 48717-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 48717-2024 prioriterade fågelarter.docx", "A 48717-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 17342-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45756</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17342-2025 artfynd.xlsx", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17342-2025 karta.png", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17342-2025 FSC-klagomål.docx", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17342-2025 FSC-klagomål mail.docx", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17342-2025 tillsynsbegäran.docx", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17342-2025 tillsynsbegäran mail.docx", "A 17342-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 17342-2025 prioriterade fågelarter.docx", "A 17342-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37456-2023</t>
+          <t>A 9807-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45156</v>
+        <v>46072</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,19 +2129,14 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2168,933 +2163,944 @@
         <v>3</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Grönsiska
+Järnsparv
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9807-2026 artfynd.xlsx", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9807-2026 karta.png", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9807-2026 FSC-klagomål.docx", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9807-2026 FSC-klagomål mail.docx", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9807-2026 tillsynsbegäran.docx", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9807-2026 tillsynsbegäran mail.docx", "A 9807-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9807-2026 prioriterade fågelarter.docx", "A 9807-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 37456-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Tjockfotad fingersvamp
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 37456-2023 artfynd.xlsx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 37456-2023 karta.png", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 37456-2023 FSC-klagomål.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 37456-2023 FSC-klagomål mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 37456-2023 tillsynsbegäran.docx", "A 37456-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 37456-2023 tillsynsbegäran mail.docx", "A 37456-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 60-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44560</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>14.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Vätteros
 Vårärt</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 60-2022 artfynd.xlsx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 60-2022 karta.png", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 60-2022 FSC-klagomål.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 60-2022 FSC-klagomål mail.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 60-2022 tillsynsbegäran.docx", "A 60-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 60-2022 tillsynsbegäran mail.docx", "A 60-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 70608-2021</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44536</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>10.4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Tibast</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 70608-2021 artfynd.xlsx", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 70608-2021 karta.png", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 70608-2021 FSC-klagomål.docx", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 70608-2021 FSC-klagomål mail.docx", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 70608-2021 tillsynsbegäran.docx", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 70608-2021 tillsynsbegäran mail.docx", "A 70608-2021")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 70608-2021 prioriterade fågelarter.docx", "A 70608-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 9445-2022</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44616</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>10.8</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Grönpyrola
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9445-2022 artfynd.xlsx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9445-2022 karta.png", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9445-2022 FSC-klagomål.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9445-2022 FSC-klagomål mail.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9445-2022 tillsynsbegäran.docx", "A 9445-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9445-2022 tillsynsbegäran mail.docx", "A 9445-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 754-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 9745-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 62402-2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Brandticka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 41021-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 21612-2021</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 46-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44560</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>7.9</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 46-2022 artfynd.xlsx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 46-2022 karta.png", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 46-2022 FSC-klagomål.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 46-2022 FSC-klagomål mail.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 46-2022 tillsynsbegäran.docx", "A 46-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 46-2022 tillsynsbegäran mail.docx", "A 46-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 21612-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44321</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21612-2021 artfynd.xlsx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21612-2021 karta.png", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21612-2021 FSC-klagomål.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21612-2021 FSC-klagomål mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21612-2021 tillsynsbegäran.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21612-2021 tillsynsbegäran mail.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 21612-2021 prioriterade fågelarter.docx", "A 21612-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 754-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 754-2024 artfynd.xlsx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 754-2024 karta.png", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 754-2024 FSC-klagomål.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 754-2024 FSC-klagomål mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 754-2024 tillsynsbegäran.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 754-2024 tillsynsbegäran mail.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 754-2024 prioriterade fågelarter.docx", "A 754-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 41021-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 41021-2023 artfynd.xlsx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 41021-2023 karta.png", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 41021-2023 FSC-klagomål.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 41021-2023 FSC-klagomål mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 41021-2023 tillsynsbegäran.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 41021-2023 tillsynsbegäran mail.docx", "A 41021-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 9745-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 9745-2022 artfynd.xlsx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 9745-2022 karta.png", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 9745-2022 FSC-klagomål.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 9745-2022 FSC-klagomål mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 9745-2022 tillsynsbegäran.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 9745-2022 tillsynsbegäran mail.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 9745-2022 prioriterade fågelarter.docx", "A 9745-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 62402-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44923</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 62402-2022 artfynd.xlsx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 62402-2022 karta.png", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 62402-2022 FSC-klagomål.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 62402-2022 FSC-klagomål mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 62402-2022 tillsynsbegäran.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 62402-2022 tillsynsbegäran mail.docx", "A 62402-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 8817-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45712.70987268518</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>VALLENTUNA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14508-2024</t>
+          <t>A 8817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45394.61583333334</v>
+        <v>45712.70987268518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,16 +3113,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3131,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3141,49 +3147,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 8817-2025 artfynd.xlsx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 8817-2025 karta.png", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 8817-2025 FSC-klagomål.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 8817-2025 FSC-klagomål mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 8817-2025 tillsynsbegäran.docx", "A 8817-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 8817-2025 tillsynsbegäran mail.docx", "A 8817-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17348-2025</t>
+          <t>A 7890-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45756</v>
+        <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,23 +3197,18 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3235,45 +3232,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21439-2025</t>
+          <t>A 22830-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45782.52939814814</v>
+        <v>45448.56583333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,17 +3283,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3320,45 +3317,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22936-2025</t>
+          <t>A 54481-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45790.45738425926</v>
+        <v>45965.58837962963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,17 +3368,17 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3405,45 +3402,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22830-2024</t>
+          <t>A 34460-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45448.56583333333</v>
+        <v>45139</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3456,7 +3453,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3490,45 +3487,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22830-2024 artfynd.xlsx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22830-2024 karta.png", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22830-2024 FSC-klagomål.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22830-2024 FSC-klagomål mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22830-2024 tillsynsbegäran.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22830-2024 tillsynsbegäran mail.docx", "A 22830-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54481-2025</t>
+          <t>A 17348-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45965.58837962963</v>
+        <v>45756</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,17 +3537,22 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3565,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3575,45 +3577,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 54481-2025 artfynd.xlsx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 17348-2025 artfynd.xlsx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 54481-2025 karta.png", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 17348-2025 karta.png", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 54481-2025 FSC-klagomål.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 17348-2025 FSC-klagomål.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 54481-2025 FSC-klagomål mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 17348-2025 FSC-klagomål mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 54481-2025 tillsynsbegäran.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 17348-2025 tillsynsbegäran.docx", "A 17348-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 54481-2025 tillsynsbegäran mail.docx", "A 54481-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 17348-2025 tillsynsbegäran mail.docx", "A 17348-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7890-2023</t>
+          <t>A 63539-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>46013.58824074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,16 +3628,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3650,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3660,31 +3662,31 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 7890-2023 artfynd.xlsx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 7890-2023 karta.png", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 7890-2023 FSC-klagomål.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 7890-2023 FSC-klagomål mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 7890-2023 tillsynsbegäran.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 7890-2023 tillsynsbegäran mail.docx", "A 7890-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
         <v/>
       </c>
     </row>
@@ -3698,7 +3700,7 @@
         <v>46013.59207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,14 +3778,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63539-2025</t>
+          <t>A 34458-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46013.58824074074</v>
+        <v>45139</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3796,17 +3798,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3830,31 +3832,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 63539-2025 artfynd.xlsx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 63539-2025 karta.png", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 63539-2025 FSC-klagomål.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 63539-2025 FSC-klagomål mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 63539-2025 tillsynsbegäran.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 63539-2025 tillsynsbegäran mail.docx", "A 63539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
         <v/>
       </c>
     </row>
@@ -3868,7 +3870,7 @@
         <v>44560</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3958,7 +3960,7 @@
         <v>45756</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4041,14 +4043,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34458-2023</t>
+          <t>A 14508-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45139</v>
+        <v>45394.61583333334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4061,10 +4063,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4095,45 +4097,49 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34458-2023 artfynd.xlsx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 14508-2024 artfynd.xlsx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34458-2023 karta.png", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 14508-2024 karta.png", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34458-2023 FSC-klagomål.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 14508-2024 FSC-klagomål.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34458-2023 FSC-klagomål mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 14508-2024 FSC-klagomål mail.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34458-2023 tillsynsbegäran.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 14508-2024 tillsynsbegäran.docx", "A 14508-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34458-2023 tillsynsbegäran mail.docx", "A 34458-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 14508-2024 tillsynsbegäran mail.docx", "A 14508-2024")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/fåglar/A 14508-2024 prioriterade fågelarter.docx", "A 14508-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34460-2023</t>
+          <t>A 21439-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45139</v>
+        <v>45782.52939814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4146,16 +4152,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4170,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4180,45 +4186,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 34460-2023 artfynd.xlsx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 21439-2025 artfynd.xlsx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 34460-2023 karta.png", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 21439-2025 karta.png", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 34460-2023 FSC-klagomål.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 21439-2025 FSC-klagomål.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 34460-2023 FSC-klagomål mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 21439-2025 FSC-klagomål mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 34460-2023 tillsynsbegäran.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 21439-2025 tillsynsbegäran.docx", "A 21439-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 34460-2023 tillsynsbegäran mail.docx", "A 34460-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 21439-2025 tillsynsbegäran mail.docx", "A 21439-2025")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20612-2021</t>
+          <t>A 22936-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44315</v>
+        <v>45790.45738425926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4230,19 +4236,14 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4266,21 +4267,49 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/artfynd/A 22936-2025 artfynd.xlsx", "A 22936-2025")</f>
+        <v/>
+      </c>
+      <c r="T41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/kartor/A 22936-2025 karta.png", "A 22936-2025")</f>
+        <v/>
+      </c>
+      <c r="V41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomål/A 22936-2025 FSC-klagomål.docx", "A 22936-2025")</f>
+        <v/>
+      </c>
+      <c r="W41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/klagomålsmail/A 22936-2025 FSC-klagomål mail.docx", "A 22936-2025")</f>
+        <v/>
+      </c>
+      <c r="X41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsyn/A 22936-2025 tillsynsbegäran.docx", "A 22936-2025")</f>
+        <v/>
+      </c>
+      <c r="Y41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0115/tillsynsmail/A 22936-2025 tillsynsbegäran mail.docx", "A 22936-2025")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8089-2022</t>
+          <t>A 20612-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44609.53716435185</v>
+        <v>44315</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,8 +4321,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4330,14 +4364,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9442-2022</t>
+          <t>A 8089-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44616</v>
+        <v>44609.53716435185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4350,7 +4384,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4387,14 +4421,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14434-2021</t>
+          <t>A 9442-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44279</v>
+        <v>44616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4407,7 +4441,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4444,14 +4478,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 178-2022</t>
+          <t>A 14434-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44560</v>
+        <v>44279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,13 +4497,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4506,14 +4535,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22060-2021</t>
+          <t>A 178-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44323</v>
+        <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4525,8 +4554,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4563,14 +4597,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 242-2022</t>
+          <t>A 22060-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44560</v>
+        <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4582,13 +4616,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4632,7 +4661,7 @@
         <v>44581</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,14 +4711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7276-2022</t>
+          <t>A 242-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44606</v>
+        <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4701,8 +4730,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4739,14 +4773,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46924-2021</t>
+          <t>A 7276-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44446</v>
+        <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4759,7 +4793,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4796,14 +4830,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52377-2021</t>
+          <t>A 46924-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44465</v>
+        <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4816,7 +4850,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4860,7 +4894,7 @@
         <v>44279.4665625</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4917,7 +4951,7 @@
         <v>44279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4974,7 +5008,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,14 +5058,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37657-2021</t>
+          <t>A 52377-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44400</v>
+        <v>44465</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5044,7 +5078,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5081,14 +5115,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48078-2021</t>
+          <t>A 37657-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44449.42578703703</v>
+        <v>44400</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5101,7 +5135,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5138,14 +5172,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42624-2021</t>
+          <t>A 48078-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44428</v>
+        <v>44449.42578703703</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,14 +5229,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14725-2022</t>
+          <t>A 42624-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44655</v>
+        <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5215,7 +5249,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5252,14 +5286,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7085-2022</t>
+          <t>A 14725-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44603</v>
+        <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5272,7 +5306,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5309,14 +5343,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38102-2024</t>
+          <t>A 7085-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45545.36349537037</v>
+        <v>44603</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5329,7 +5363,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5366,14 +5400,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48014-2025</t>
+          <t>A 52989-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45932.64520833334</v>
+        <v>45226</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5386,7 +5420,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5423,14 +5457,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17340-2025</t>
+          <t>A 26390-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45756</v>
+        <v>45086</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5442,13 +5476,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5485,14 +5514,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48038-2025</t>
+          <t>A 15300-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45932.66008101852</v>
+        <v>45019</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5505,7 +5534,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5542,14 +5571,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49530-2023</t>
+          <t>A 61742-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45205</v>
+        <v>44917</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5562,7 +5591,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5599,14 +5628,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20791-2025</t>
+          <t>A 12562-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45776.62738425926</v>
+        <v>45000</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5619,7 +5648,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5656,14 +5685,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10073-2024</t>
+          <t>A 14480-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45364.40821759259</v>
+        <v>45394.56777777777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5676,7 +5705,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5713,14 +5742,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34452-2021</t>
+          <t>A 17340-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44381</v>
+        <v>45756</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5732,8 +5761,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>14.7</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5770,14 +5804,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12621-2024</t>
+          <t>A 30913-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45383.6325</v>
+        <v>44365</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5789,8 +5823,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5827,14 +5866,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24994-2021</t>
+          <t>A 45496-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44341</v>
+        <v>45194</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5847,7 +5886,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5923,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52989-2023</t>
+          <t>A 29704-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45226</v>
+        <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5943,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5980,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46381-2023</t>
+          <t>A 30902-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45193</v>
+        <v>45832.36104166666</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5961,7 +6000,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +6037,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3078-2023</t>
+          <t>A 41206-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44946.41527777778</v>
+        <v>45898</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6057,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6094,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61027-2023</t>
+          <t>A 12609-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45261</v>
+        <v>45382.8109375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6075,7 +6114,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6151,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23009-2024</t>
+          <t>A 13836-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45450.34506944445</v>
+        <v>44649</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6171,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6208,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60795-2023</t>
+          <t>A 28431-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45260</v>
+        <v>45819.38072916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6189,7 +6228,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6265,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41206-2025</t>
+          <t>A 4804-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45898</v>
+        <v>45328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6246,7 +6285,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6322,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14480-2024</t>
+          <t>A 44988-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45394.56777777777</v>
+        <v>45918.65505787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6303,7 +6342,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6379,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23923-2025</t>
+          <t>A 24707-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45795.39648148148</v>
+        <v>45084</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6360,7 +6399,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6397,14 +6436,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50784-2025</t>
+          <t>A 48014-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45946</v>
+        <v>45932.64520833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6417,7 +6456,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6493,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30913-2021</t>
+          <t>A 48038-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44365</v>
+        <v>45932.66008101852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6473,13 +6512,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6516,14 +6550,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27868-2025</t>
+          <t>A 44346-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45817</v>
+        <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6536,7 +6570,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6573,14 +6607,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54466-2025</t>
+          <t>A 5910-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45965.56984953704</v>
+        <v>44597</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6593,7 +6627,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6664,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54460-2025</t>
+          <t>A 24994-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45965.56219907408</v>
+        <v>44341</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6684,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>22.9</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6721,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25984-2025</t>
+          <t>A 50784-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45804.64016203704</v>
+        <v>45946</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6741,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6778,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44988-2025</t>
+          <t>A 60795-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45918.65505787037</v>
+        <v>45260</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6764,7 +6798,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6835,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48068-2021</t>
+          <t>A 60997-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44449.42270833333</v>
+        <v>44914.70746527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6821,7 +6855,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6858,14 +6892,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3937-2022</t>
+          <t>A 14775-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44587</v>
+        <v>45397.73675925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6878,7 +6912,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6949,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60818-2023</t>
+          <t>A 27868-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45259</v>
+        <v>45817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6935,7 +6969,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +7006,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7264-2022</t>
+          <t>A 8565-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44606</v>
+        <v>45709</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6991,8 +7025,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7068,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30902-2025</t>
+          <t>A 8787-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45832.36104166666</v>
+        <v>45356</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7049,7 +7088,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7086,14 +7125,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 19356-2025</t>
+          <t>A 54460-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45769.62061342593</v>
+        <v>45965.56219907408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7105,13 +7144,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>22.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7182,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12562-2023</t>
+          <t>A 54466-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45000</v>
+        <v>45965.56984953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7168,7 +7202,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7239,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28431-2025</t>
+          <t>A 14782-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45819.38072916667</v>
+        <v>45397.74266203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7259,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7262,14 +7296,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27870-2025</t>
+          <t>A 52562-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817</v>
+        <v>45225</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7282,7 +7316,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7319,14 +7353,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24068-2024</t>
+          <t>A 49530-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45456</v>
+        <v>45205</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7373,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7376,14 +7410,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61442-2024</t>
+          <t>A 52542-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45646.47003472222</v>
+        <v>45225</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7396,7 +7430,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7433,14 +7467,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44346-2021</t>
+          <t>A 2318-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44434</v>
+        <v>45310</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7453,7 +7487,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7490,14 +7524,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61646-2025</t>
+          <t>A 9063-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46002</v>
+        <v>45357.72652777778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7510,7 +7544,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7547,14 +7581,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19503-2023</t>
+          <t>A 21445-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45050.47333333334</v>
+        <v>45063</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7567,7 +7601,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7604,14 +7638,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 21445-2023</t>
+          <t>A 34441-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45063</v>
+        <v>45139</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7624,7 +7658,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7661,14 +7695,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22683-2023</t>
+          <t>A 34445-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45071</v>
+        <v>45139</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7681,7 +7715,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7718,14 +7752,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24943-2024</t>
+          <t>A 735-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45461.62585648148</v>
+        <v>45300</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7738,7 +7772,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7775,14 +7809,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5910-2022</t>
+          <t>A 12585-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44597</v>
+        <v>45000.41373842592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7795,7 +7829,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7832,14 +7866,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6298-2026</t>
+          <t>A 27870-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46055.5656712963</v>
+        <v>45817</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7852,7 +7886,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7889,14 +7923,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26390-2023</t>
+          <t>A 8077-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45086</v>
+        <v>44609</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,7 +7943,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7946,14 +7980,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 414-2026</t>
+          <t>A 47140-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46028.76050925926</v>
+        <v>45586.58753472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7966,7 +8000,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8003,14 +8037,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24707-2023</t>
+          <t>A 61646-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45084</v>
+        <v>46002</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8023,7 +8057,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8060,14 +8094,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12609-2024</t>
+          <t>A 6298-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45382.8109375</v>
+        <v>46055.5656712963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8080,7 +8114,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8117,14 +8151,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47140-2024</t>
+          <t>A 21765-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45586.58753472222</v>
+        <v>45064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8137,7 +8171,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8174,14 +8208,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8565-2025</t>
+          <t>A 21614-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45709</v>
+        <v>44706</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8193,13 +8227,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8236,14 +8265,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9063-2024</t>
+          <t>A 23986-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45357.72652777778</v>
+        <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8255,8 +8284,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8293,14 +8327,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4803-2024</t>
+          <t>A 24068-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45328</v>
+        <v>45456</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8313,7 +8347,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8350,14 +8384,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52542-2023</t>
+          <t>A 3937-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45225</v>
+        <v>44587</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8404,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8407,14 +8441,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11950-2025</t>
+          <t>A 23013-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45728.55622685186</v>
+        <v>45450.35116898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8461,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8464,14 +8498,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14489-2024</t>
+          <t>A 3078-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45394.58053240741</v>
+        <v>44946.41527777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8518,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8521,14 +8555,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52562-2023</t>
+          <t>A 414-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45225</v>
+        <v>46028.76050925926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8575,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8578,14 +8612,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4804-2024</t>
+          <t>A 19503-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45328</v>
+        <v>45050.47333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8632,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8635,14 +8669,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23013-2024</t>
+          <t>A 4803-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45450.35116898148</v>
+        <v>45328</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8689,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8692,14 +8726,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2318-2024</t>
+          <t>A 3698-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45310</v>
+        <v>44586</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8746,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8749,14 +8783,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61742-2022</t>
+          <t>A 38102-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44917</v>
+        <v>45545.36349537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8803,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8806,14 +8840,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3698-2022</t>
+          <t>A 12234-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44586</v>
+        <v>44637</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8860,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8863,14 +8897,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60997-2022</t>
+          <t>A 24943-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44914.70746527778</v>
+        <v>45461.62585648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8917,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8920,14 +8954,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12234-2022</t>
+          <t>A 22683-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44637</v>
+        <v>45071</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8974,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8977,14 +9011,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 21614-2022</t>
+          <t>A 17411-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44706</v>
+        <v>45035.82512731481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +9031,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9034,14 +9068,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12585-2023</t>
+          <t>A 1385-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45000.41373842592</v>
+        <v>45303</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9088,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9091,14 +9125,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8787-2024</t>
+          <t>A 60818-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45356</v>
+        <v>45259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9145,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9148,14 +9182,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34441-2023</t>
+          <t>A 7264-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45139</v>
+        <v>44606</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9168,7 +9202,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9205,14 +9239,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34445-2023</t>
+          <t>A 19356-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45139</v>
+        <v>45769.62061342593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9224,8 +9258,13 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9262,14 +9301,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 23986-2023</t>
+          <t>A 11950-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45078</v>
+        <v>45728.55622685186</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9281,13 +9320,8 @@
           <t>VALLENTUNA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9324,14 +9358,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15300-2023</t>
+          <t>A 14489-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45019</v>
+        <v>45394.58053240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9344,7 +9378,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9381,14 +9415,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 8077-2022</t>
+          <t>A 15268-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44609</v>
+        <v>45019.41045138889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9401,7 +9435,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9438,14 +9472,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 13836-2022</t>
+          <t>A 61442-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44649</v>
+        <v>45646.47003472222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9458,7 +9492,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9495,14 +9529,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29704-2023</t>
+          <t>A 48068-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45107</v>
+        <v>44449.42270833333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9515,7 +9549,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9552,14 +9586,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 21765-2023</t>
+          <t>A 45499-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45064</v>
+        <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9572,7 +9606,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9609,14 +9643,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45496-2023</t>
+          <t>A 34452-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45194</v>
+        <v>44381</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9629,7 +9663,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>14.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9666,14 +9700,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45499-2023</t>
+          <t>A 20791-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45194</v>
+        <v>45776.62738425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9686,7 +9720,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9723,14 +9757,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14782-2024</t>
+          <t>A 10073-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45397.74266203704</v>
+        <v>45364.40821759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9743,7 +9777,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9780,14 +9814,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1385-2024</t>
+          <t>A 12621-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45303</v>
+        <v>45383.6325</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9800,7 +9834,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9837,14 +9871,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14775-2024</t>
+          <t>A 46381-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45397.73675925926</v>
+        <v>45193</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9857,7 +9891,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9894,14 +9928,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 735-2024</t>
+          <t>A 23009-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45300</v>
+        <v>45450.34506944445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9914,7 +9948,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9951,14 +9985,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17411-2023</t>
+          <t>A 61027-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45035.82512731481</v>
+        <v>45261</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9971,7 +10005,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10005,17 +10039,17 @@
       </c>
       <c r="R141" s="2" t="inlineStr"/>
     </row>
-    <row r="142">
+    <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15268-2023</t>
+          <t>A 23923-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45019.41045138889</v>
+        <v>45795.39648148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10028,7 +10062,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10061,6 +10095,63 @@
         <v>0</v>
       </c>
       <c r="R142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>A 25984-2025</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45804.64016203704</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
